--- a/Prezzi_esempio2.xlsx
+++ b/Prezzi_esempio2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C381E4AE-A89F-4174-AE67-112F97D1AE1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAADAD4-D752-430E-9838-D1678C15ADF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AAA68822-8F70-463B-B2D4-2C83639BFA59}"/>
   </bookViews>
@@ -833,7 +833,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:F54"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -874,7 +874,6 @@
         <v>6</v>
       </c>
       <c r="D2" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C2,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E2" s="4">

--- a/Prezzi_esempio2.xlsx
+++ b/Prezzi_esempio2.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gieck\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAADAD4-D752-430E-9838-D1678C15ADF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A46B3A4-49C7-4FD6-B443-C3EEDCE7AFE0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{AAA68822-8F70-463B-B2D4-2C83639BFA59}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -201,336 +198,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Listino prezzi"/>
-      <sheetName val="Acquisti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Pizza</v>
-          </cell>
-          <cell r="C3">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Birra</v>
-          </cell>
-          <cell r="C4">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Piadina</v>
-          </cell>
-          <cell r="C5">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Caffe</v>
-          </cell>
-          <cell r="C6">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Brioches</v>
-          </cell>
-          <cell r="C7">
-            <v>1.2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Merenda</v>
-          </cell>
-          <cell r="C8">
-            <v>2.5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Brioches</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7" t="str">
-            <v>Brioches</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19" t="str">
-            <v>Brioches</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31" t="str">
-            <v>Brioches</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42" t="str">
-            <v>Brioches</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45" t="str">
-            <v>Pizza</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>Caffe</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50" t="str">
-            <v>Piadina</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53" t="str">
-            <v>Merenda</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54" t="str">
-            <v>Birra</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -833,7 +500,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +562,6 @@
         <v>7</v>
       </c>
       <c r="D3" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C3,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E3" s="4">
@@ -917,7 +583,6 @@
         <v>8</v>
       </c>
       <c r="D4" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C4,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1.2</v>
       </c>
       <c r="E4" s="4">
@@ -939,7 +604,6 @@
         <v>9</v>
       </c>
       <c r="D5" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C5,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E5" s="4">
@@ -961,7 +625,6 @@
         <v>10</v>
       </c>
       <c r="D6" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C6,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E6" s="4">
@@ -983,7 +646,6 @@
         <v>8</v>
       </c>
       <c r="D7" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C7,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1.2</v>
       </c>
       <c r="E7" s="4">
@@ -1005,7 +667,6 @@
         <v>7</v>
       </c>
       <c r="D8" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C8,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E8" s="4">
@@ -1027,7 +688,6 @@
         <v>6</v>
       </c>
       <c r="D9" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C9,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E9" s="4">
@@ -1049,7 +709,6 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C10,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E10" s="4">
@@ -1071,7 +730,6 @@
         <v>10</v>
       </c>
       <c r="D11" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C11,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E11" s="4">
@@ -1093,7 +751,6 @@
         <v>7</v>
       </c>
       <c r="D12" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C12,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E12" s="4">
@@ -1115,7 +772,6 @@
         <v>7</v>
       </c>
       <c r="D13" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C13,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E13" s="4">
@@ -1137,7 +793,6 @@
         <v>11</v>
       </c>
       <c r="D14" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C14,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E14" s="4">
@@ -1159,7 +814,6 @@
         <v>11</v>
       </c>
       <c r="D15" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C15,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E15" s="4">
@@ -1181,7 +835,6 @@
         <v>6</v>
       </c>
       <c r="D16" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C16,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E16" s="4">
@@ -1203,7 +856,6 @@
         <v>10</v>
       </c>
       <c r="D17" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C17,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E17" s="4">
@@ -1225,7 +877,6 @@
         <v>10</v>
       </c>
       <c r="D18" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C18,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E18" s="4">
@@ -1247,7 +898,6 @@
         <v>8</v>
       </c>
       <c r="D19" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C19,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1.2</v>
       </c>
       <c r="E19" s="4">
@@ -1269,7 +919,6 @@
         <v>7</v>
       </c>
       <c r="D20" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C20,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E20" s="4">
@@ -1291,7 +940,6 @@
         <v>6</v>
       </c>
       <c r="D21" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C21,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E21" s="4">
@@ -1313,7 +961,6 @@
         <v>9</v>
       </c>
       <c r="D22" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C22,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E22" s="4">
@@ -1335,7 +982,6 @@
         <v>10</v>
       </c>
       <c r="D23" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C23,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E23" s="4">
@@ -1357,7 +1003,6 @@
         <v>7</v>
       </c>
       <c r="D24" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C24,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E24" s="4">
@@ -1379,7 +1024,6 @@
         <v>7</v>
       </c>
       <c r="D25" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C25,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E25" s="4">
@@ -1401,7 +1045,6 @@
         <v>11</v>
       </c>
       <c r="D26" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C26,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E26" s="4">
@@ -1423,7 +1066,6 @@
         <v>11</v>
       </c>
       <c r="D27" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C27,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E27" s="4">
@@ -1445,7 +1087,6 @@
         <v>6</v>
       </c>
       <c r="D28" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C28,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E28" s="4">
@@ -1467,7 +1108,6 @@
         <v>10</v>
       </c>
       <c r="D29" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C29,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E29" s="4">
@@ -1489,7 +1129,6 @@
         <v>10</v>
       </c>
       <c r="D30" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C30,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E30" s="4">
@@ -1511,7 +1150,6 @@
         <v>8</v>
       </c>
       <c r="D31" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C31,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1.2</v>
       </c>
       <c r="E31" s="4">
@@ -1533,7 +1171,6 @@
         <v>7</v>
       </c>
       <c r="D32" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C32,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E32" s="4">
@@ -1555,7 +1192,6 @@
         <v>6</v>
       </c>
       <c r="D33" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C33,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E33" s="4">
@@ -1577,7 +1213,6 @@
         <v>9</v>
       </c>
       <c r="D34" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C34,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E34" s="4">
@@ -1599,7 +1234,6 @@
         <v>7</v>
       </c>
       <c r="D35" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C35,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E35" s="4">
@@ -1621,7 +1255,6 @@
         <v>10</v>
       </c>
       <c r="D36" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C36,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E36" s="4">
@@ -1643,7 +1276,6 @@
         <v>10</v>
       </c>
       <c r="D37" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C37,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E37" s="4">
@@ -1665,7 +1297,6 @@
         <v>6</v>
       </c>
       <c r="D38" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C38,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E38" s="4">
@@ -1687,7 +1318,6 @@
         <v>7</v>
       </c>
       <c r="D39" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C39,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E39" s="4">
@@ -1709,7 +1339,6 @@
         <v>11</v>
       </c>
       <c r="D40" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C40,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E40" s="4">
@@ -1731,7 +1360,6 @@
         <v>9</v>
       </c>
       <c r="D41" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C41,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E41" s="4">
@@ -1753,7 +1381,6 @@
         <v>8</v>
       </c>
       <c r="D42" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C42,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1.2</v>
       </c>
       <c r="E42" s="4">
@@ -1775,7 +1402,6 @@
         <v>7</v>
       </c>
       <c r="D43" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C43,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E43" s="4">
@@ -1797,7 +1423,6 @@
         <v>6</v>
       </c>
       <c r="D44" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C44,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E44" s="4">
@@ -1819,7 +1444,6 @@
         <v>9</v>
       </c>
       <c r="D45" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C45,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>10</v>
       </c>
       <c r="E45" s="4">
@@ -1841,7 +1465,6 @@
         <v>10</v>
       </c>
       <c r="D46" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C46,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E46" s="4">
@@ -1863,7 +1486,6 @@
         <v>7</v>
       </c>
       <c r="D47" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C47,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E47" s="4">
@@ -1885,7 +1507,6 @@
         <v>7</v>
       </c>
       <c r="D48" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C48,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>1</v>
       </c>
       <c r="E48" s="4">
@@ -1907,7 +1528,6 @@
         <v>11</v>
       </c>
       <c r="D49" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C49,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E49" s="4">
@@ -1929,7 +1549,6 @@
         <v>11</v>
       </c>
       <c r="D50" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C50,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E50" s="4">
@@ -1951,7 +1570,6 @@
         <v>6</v>
       </c>
       <c r="D51" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C51,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E51" s="4">
@@ -1973,7 +1591,6 @@
         <v>10</v>
       </c>
       <c r="D52" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C52,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E52" s="4">
@@ -1995,7 +1612,6 @@
         <v>10</v>
       </c>
       <c r="D53" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C53,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>2.5</v>
       </c>
       <c r="E53" s="4">
@@ -2017,7 +1633,6 @@
         <v>6</v>
       </c>
       <c r="D54" s="6">
-        <f>INDEX('[1]Listino prezzi'!$C$3:$C$8,MATCH([1]Acquisti!C54,'[1]Listino prezzi'!$B$3:$B$8,0))</f>
         <v>5</v>
       </c>
       <c r="E54" s="4">
